--- a/data/surge/surgeData308.xlsx
+++ b/data/surge/surgeData308.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/R10/CH4_308_Wapato/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{966CA796-4459-4D13-9405-504146F23A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99DA1D1B-6338-4C96-AD58-79CF0AE5EC8E}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{966CA796-4459-4D13-9405-504146F23A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{472F8553-0C15-4977-89F4-F60DD9A53ABC}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="2160" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BP$47</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentManualCount="4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1217,7 +1217,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1306,6 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1665,78 +1666,78 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.36328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.33203125" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" customWidth="1"/>
-    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.36328125" customWidth="1"/>
+    <col min="30" max="30" width="10.36328125" customWidth="1"/>
+    <col min="31" max="31" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.6640625" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" customWidth="1"/>
-    <col min="52" max="52" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.33203125" customWidth="1"/>
-    <col min="65" max="65" width="14.88671875" customWidth="1"/>
-    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6328125" customWidth="1"/>
+    <col min="50" max="50" width="13.36328125" customWidth="1"/>
+    <col min="51" max="51" width="8.36328125" customWidth="1"/>
+    <col min="52" max="52" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.36328125" customWidth="1"/>
+    <col min="65" max="65" width="14.90625" customWidth="1"/>
+    <col min="66" max="66" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.6640625" customWidth="1"/>
+    <col min="70" max="70" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>308</v>
       </c>
@@ -2164,7 +2165,7 @@
       <c r="BY3" s="29"/>
       <c r="BZ3" s="26"/>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A4" s="25">
         <v>308</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A5" s="25">
         <v>308</v>
       </c>
@@ -2269,7 +2270,7 @@
       <c r="D5" s="30">
         <v>47.91948</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="38">
         <v>-120.163</v>
       </c>
       <c r="F5" t="s">
@@ -2348,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A6" s="25">
         <v>308</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
         <v>308</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>308</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>308</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>308</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>308</v>
       </c>
@@ -2821,7 +2822,7 @@
       <c r="C11" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="38">
         <v>47.920699999999997</v>
       </c>
       <c r="E11">
@@ -2903,7 +2904,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>308</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>308</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>308</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>308</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
       <c r="A16" s="25">
         <v>308</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" s="25">
         <v>308</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="G18" s="26"/>
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
@@ -3509,18 +3510,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229CFC7D-096F-4A49-B44F-3C66E059D51A}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6328125" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3619,7 +3620,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3728,7 +3729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3917,7 +3918,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3941,7 +3942,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4300,20 +4301,20 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="25"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="25"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4329,7 +4330,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4363,7 +4364,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>210</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="25" t="s">
         <v>210</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>210</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>210</v>
       </c>
@@ -4496,14 +4497,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.54296875" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>163</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>164</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>165</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>166</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>167</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>168</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>169</v>
       </c>
@@ -4616,15 +4617,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4666,7 +4658,21 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5137,20 +5143,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5164,7 +5157,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD937433-E642-4CEF-9491-132589AD5E99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5185,12 +5194,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>